--- a/data/Subset1_WithDialogActs/HILLARY LEWIS-WOLFSEN pt 2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/HILLARY LEWIS-WOLFSEN pt 2.xlsx_with_dialog_acts.xlsx
@@ -547,12 +547,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2067,12 +2067,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
